--- a/Code/SI_Figure_A2_Data.xlsx
+++ b/Code/SI_Figure_A2_Data.xlsx
@@ -1,21 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Schroeder-et-al.--2023----An-extended-period-of-elevated-influenza-mortality-risk-follows-the-main-waves-of-influenza-pandemics\Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0259C-D1E8-4C7B-8A54-0F076209F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="25950" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Influenza" sheetId="2" r:id="rId3"/>
-    <sheet name="Respiratory" sheetId="3" r:id="rId4"/>
+    <sheet name="Influenza" sheetId="2" r:id="rId1"/>
+    <sheet name="Respiratory" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -30,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -38,363 +73,756 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I7"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="0">
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1922</v>
+      </c>
+      <c r="B2">
         <v>2.4572549019607841</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>2.2274488267403543</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>6.2783505154639174</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>5.6047430830039522</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>2.9109619074845345</v>
       </c>
-      <c r="G2" s="0">
-        <v>2.8500000000000001</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="G2">
+        <v>2.85</v>
+      </c>
+      <c r="H2">
         <v>1.6028215946846975</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0.46201122840044884</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="0">
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1924</v>
+      </c>
+      <c r="B3">
         <v>1.5428730596652922</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>1.1846685167105646</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>2.2644346242040405</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>2.9960159362549801</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1.3104306425555909</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>1.8048780487804879</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>1.2397883542429728</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0.90963211612423822</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="0">
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1927</v>
+      </c>
+      <c r="B4">
         <v>1.1354416363363233</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>2.0387884873988389</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>2.8637823976699694</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>0.66298342541436461</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>2.2333827941112943</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>2.5806451612903225</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>2.3134162707683625</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>2.1312887990674096</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="0">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1929</v>
+      </c>
+      <c r="B5">
         <v>6.6990291262135919</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>8.4111249353768223</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>2.7591442683284897</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>4.7411764705882353</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>4.6844555591585326</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>6.7619047619047619</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>4.6331749348101976</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>6.9086125468918373</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="0">
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1933</v>
+      </c>
+      <c r="B6">
         <v>2.8235294117647056</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>1.5946828814213423</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>3.8675103994967008</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>0.79211469534050183</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>2.7443078006975163</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>1.6195395765659373</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>3.8653911200856639</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>3.0041283541891679</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="0"/>
-      <c r="C7" s="0">
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1937</v>
+      </c>
+      <c r="C7">
         <v>2.8266206746987561</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>1.7410140852391576</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>4.3645320197044333</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>3.2509575448959795</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>4.1393966687614627</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>2.9593683509687967</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>5.5508021390374322</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I7"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="0">
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1922</v>
+      </c>
+      <c r="B2">
         <v>0.27519031141868505</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>1.3012754761103886</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>2.4091705375199233</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>1.7783795982848116</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>1.2557930998416917</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>1.4754098360655739</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>1.1843797116105819</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>1.5072240517314917</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="0">
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1924</v>
+      </c>
+      <c r="B3">
         <v>1.0104205331271718</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>1.0767941576877429</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>1.2028700538343735</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>1.4747252747252748</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1.0519632456341472</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>1.21256038647343</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>1.0286321480249592</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0.90398543004565346</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="0">
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1927</v>
+      </c>
+      <c r="B4">
         <v>0.92539104764818869</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>1.28311856047302</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>1.633586878298821</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>0.92994883903974812</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>1.1425996361399866</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>1.252808988764045</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>1.2817155700901115</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>1.3194398426327749</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="0">
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1929</v>
+      </c>
+      <c r="B5">
         <v>2.0813008130081303</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>2.360803294260454</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>1.3782300020538694</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>1.6506276150627615</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1.5282005853944347</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>2.0406779661016947</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>1.7373920481102041</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>2.0502824891641143</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="0">
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1933</v>
+      </c>
+      <c r="B6">
         <v>0.98865478119935168</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>1.0956418821557625</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>1.5931105029659762</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>0.81014276582143618</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>1.3260670511126422</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>1.5991171685420051</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>1.3731488027568637</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>1.3710535356604805</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="0"/>
-      <c r="C7" s="0">
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1937</v>
+      </c>
+      <c r="C7">
         <v>1.3232157789935965</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>1.1498998080976983</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>1.328032979976443</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>1.3476404212820716</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>1.3546260772331684</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>1.2446469447380681</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>1.5837973820515752</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Code/SI_Figure_A2_Data.xlsx
+++ b/Code/SI_Figure_A2_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Schroeder-et-al.--2023----An-extended-period-of-elevated-influenza-mortality-risk-follows-the-main-waves-of-influenza-pandemics\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0259C-D1E8-4C7B-8A54-0F076209F70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F8931A-3C8A-4E60-8976-F3DA4DB3BBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="25950" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="25950" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Influenza" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Belfast</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -395,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,6 +412,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -626,6 +632,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
